--- a/2024全国大赛-鸿蒙赛道预选赛/全国大学生软件测试大赛鸿蒙赛道_测试用例模板.xlsx
+++ b/2024全国大赛-鸿蒙赛道预选赛/全国大学生软件测试大赛鸿蒙赛道_测试用例模板.xlsx
@@ -1443,20 +1443,21 @@
   <sheetPr/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="28.6363636363636" customWidth="1"/>
     <col min="4" max="4" width="15.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="13.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="8.27272727272727" customWidth="1"/>
     <col min="7" max="7" width="15.7272727272727" customWidth="1"/>
-    <col min="8" max="9" width="14.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="20.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="14.6363636363636" customWidth="1"/>
     <col min="10" max="10" width="16.9090909090909" customWidth="1"/>
     <col min="11" max="11" width="9.27272727272727" customWidth="1"/>
     <col min="12" max="12" width="21.0909090909091" customWidth="1"/>
@@ -1787,7 +1788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" ht="112" spans="1:13">
+    <row r="9" ht="84" spans="1:13">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" ht="126" spans="1:13">
+    <row r="10" ht="98" spans="1:13">
       <c r="A10" s="7" t="s">
         <v>82</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" ht="210" spans="1:13">
+    <row r="11" ht="154" spans="1:13">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="98" spans="1:13">
+    <row r="12" ht="70" spans="1:13">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="140" spans="1:13">
+    <row r="13" ht="98" spans="1:13">
       <c r="A13" t="s">
         <v>103</v>
       </c>
